--- a/data/trans_dic/P17_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5418503231953871</v>
+        <v>0.5426701985255189</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5929970693181634</v>
+        <v>0.5854809033339651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6717844760052682</v>
+        <v>0.6688058705784834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6827174112853158</v>
+        <v>0.6786776806591176</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6482313539087668</v>
+        <v>0.6478677080275986</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7221177670202807</v>
+        <v>0.7240399091153487</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7121018371652715</v>
+        <v>0.717627753145492</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6952487760745066</v>
+        <v>0.69370500017689</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5983549356178637</v>
+        <v>0.5963020709185397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6588213061453586</v>
+        <v>0.6597493328663071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7085522144866893</v>
+        <v>0.707956086772724</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6968272050304786</v>
+        <v>0.6977293615219252</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6366429803256315</v>
+        <v>0.6364003659703606</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6859686156109952</v>
+        <v>0.6875453392977245</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7614523200532535</v>
+        <v>0.7601981196038212</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7637797910627876</v>
+        <v>0.7626687221211588</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.756379967214964</v>
+        <v>0.7520354212456209</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8172527851233267</v>
+        <v>0.8235724886638159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8053478986966081</v>
+        <v>0.8101159182726202</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7673909612900028</v>
+        <v>0.7663840352053083</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.66724383718556</v>
+        <v>0.6708373510698333</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7303751143499837</v>
+        <v>0.7316722289524425</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7711644347921099</v>
+        <v>0.7726242359033326</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7526883875685911</v>
+        <v>0.7551018456823239</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7246676322692431</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6954000291578825</v>
+        <v>0.6954000291578823</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7287240128096005</v>
@@ -821,7 +821,7 @@
         <v>0.7368800319882439</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7229206015403216</v>
+        <v>0.7229206015403217</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6674339263213718</v>
@@ -833,7 +833,7 @@
         <v>0.7307336965925797</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7082325289851389</v>
+        <v>0.7082325289851386</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5513174594267478</v>
+        <v>0.5506154097748693</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6119699629342374</v>
+        <v>0.6112012063494578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6675106117925189</v>
+        <v>0.6798564529597745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6443876058727636</v>
+        <v>0.6515975663346326</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6805843280315753</v>
+        <v>0.6842322580513512</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7303491013251728</v>
+        <v>0.7244038373074937</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6941081886060533</v>
+        <v>0.6884991022902217</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6814899713908977</v>
+        <v>0.6805054378046245</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.629381402850157</v>
+        <v>0.6285684106530444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.680738278472736</v>
+        <v>0.6817708803547372</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6957047084529535</v>
+        <v>0.6951652712286466</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6782467112912505</v>
+        <v>0.6761281813321673</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6552665915811047</v>
+        <v>0.6526374593199621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7117849373061976</v>
+        <v>0.7138001990974286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.769784259033065</v>
+        <v>0.7761934132601981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7372912037677417</v>
+        <v>0.7416610177127065</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7710199973345713</v>
+        <v>0.7735253930109104</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8274048410227409</v>
+        <v>0.8215545292522406</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7834196045501841</v>
+        <v>0.7851446758362682</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7579853929903194</v>
+        <v>0.7591551362702512</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.700091838350323</v>
+        <v>0.7014224800664013</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7507327303553345</v>
+        <v>0.7534388874286424</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7653984147136179</v>
+        <v>0.7614227007725878</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7371817384797146</v>
+        <v>0.7355960502729875</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7589940357302027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.724038126191893</v>
+        <v>0.7240381261918933</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7574508816766762</v>
@@ -969,7 +969,7 @@
         <v>0.7844565169699229</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7382999607785403</v>
+        <v>0.7382999607785401</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6093894753881001</v>
+        <v>0.608924960055751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7081143640302343</v>
+        <v>0.7058250929723345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.716651546945814</v>
+        <v>0.7186570204461944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.680488428657653</v>
+        <v>0.6802041473514083</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6894534689075047</v>
+        <v>0.6855416194521322</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7438594612019886</v>
+        <v>0.7441795585358786</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8028967665244507</v>
+        <v>0.8007675853041823</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7204290360554527</v>
+        <v>0.7158005838196273</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6394517265558978</v>
+        <v>0.6428118850317457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7286856700809409</v>
+        <v>0.7281407490044781</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7479926339229025</v>
+        <v>0.747731090080726</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7005313337179504</v>
+        <v>0.7006452512430448</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6929718331287699</v>
+        <v>0.6935155529889964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7810075454937512</v>
+        <v>0.7810644384329163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7961074279627181</v>
+        <v>0.7955225784979016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7657272258316803</v>
+        <v>0.7666271456757865</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8234674822512361</v>
+        <v>0.8193297644931957</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8447155468970019</v>
+        <v>0.8474245098078573</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.906428979288739</v>
+        <v>0.9086336291617542</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8226583387556071</v>
+        <v>0.8192497161668281</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7121642834395671</v>
+        <v>0.7135642190435141</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7867389680629753</v>
+        <v>0.7865786984808024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8151776375784908</v>
+        <v>0.8146193219922178</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7696519159187682</v>
+        <v>0.7714736079786829</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7436737659868904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6573832060153025</v>
+        <v>0.6573832060153026</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7584034755557985</v>
@@ -1093,7 +1093,7 @@
         <v>0.8131600503122816</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7560905515019533</v>
+        <v>0.7560905515019534</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6936383534943267</v>
@@ -1105,7 +1105,7 @@
         <v>0.7726314764082705</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7000401975926014</v>
+        <v>0.7000401975926012</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6290503905291845</v>
+        <v>0.6308496136028879</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7063748407652773</v>
+        <v>0.7057522797357526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7188588994144357</v>
+        <v>0.717091449295289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6268749136890934</v>
+        <v>0.6223145235164127</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.724305874609233</v>
+        <v>0.7240267843920041</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7961903096883415</v>
+        <v>0.795711064432535</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7865054258261726</v>
+        <v>0.7821656017351755</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7263828422787799</v>
+        <v>0.7268284706188441</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6719412225966664</v>
+        <v>0.6745971764318363</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7507334766910118</v>
+        <v>0.7498832488273243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7527339584885626</v>
+        <v>0.7539300403188153</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6789290774596882</v>
+        <v>0.6765723412911745</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6842521798392296</v>
+        <v>0.6831398694306123</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7595983314288555</v>
+        <v>0.7597834382542725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7692453211628199</v>
+        <v>0.7702423209538769</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6883218017257691</v>
+        <v>0.6881230374306674</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7888634465155449</v>
+        <v>0.7910830514079603</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8515112881761225</v>
+        <v>0.8507649389414293</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8401596295635922</v>
+        <v>0.8392574889167221</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7817637551696799</v>
+        <v>0.7795463215505352</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7142979763567662</v>
+        <v>0.7140321481199638</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7912569555982573</v>
+        <v>0.7893578149610698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7922992709619309</v>
+        <v>0.7898391123039881</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7214430058575225</v>
+        <v>0.7200631776679434</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7687258957820357</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6950964503029878</v>
+        <v>0.6950964503029879</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7741683954013433</v>
@@ -1229,7 +1229,7 @@
         <v>0.8355404590638051</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8084454626934067</v>
+        <v>0.8084454626934068</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7150062353938712</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5619620695336294</v>
+        <v>0.5646118172362872</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7081426802566374</v>
+        <v>0.7081438061816532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7304589533546157</v>
+        <v>0.7319259657928719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6526684716361479</v>
+        <v>0.6503733035555176</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7376517998615721</v>
+        <v>0.7348066991910502</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8196461009221568</v>
+        <v>0.8238389655952516</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8058187044485032</v>
+        <v>0.8073155193957509</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7819039314005086</v>
+        <v>0.7853684299682738</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.682230232984929</v>
+        <v>0.6834390147488317</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7868183359685103</v>
+        <v>0.785165571353468</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7825615395387571</v>
+        <v>0.7809761013040861</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7395747183631588</v>
+        <v>0.7375585233304557</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6728529018698112</v>
+        <v>0.6693613251700749</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7836069757892046</v>
+        <v>0.7860200261394442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8018552617303705</v>
+        <v>0.801479186733088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7404964253411497</v>
+        <v>0.7367942611005035</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8085141097129936</v>
+        <v>0.8076700696184831</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8749723457998839</v>
+        <v>0.8747093355206333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8626728671514801</v>
+        <v>0.8631887812379408</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8306901087618519</v>
+        <v>0.8316324751476685</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7451222071747536</v>
+        <v>0.7444316752319823</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8311141129563108</v>
+        <v>0.831389715058746</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8269685137479201</v>
+        <v>0.8287432833592452</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.787149917314148</v>
+        <v>0.7830828841272651</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.706381206280301</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.535907086897271</v>
+        <v>0.5359070868972708</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.7923319336504114</v>
@@ -1377,7 +1377,7 @@
         <v>0.8074230340585324</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7350337454953929</v>
+        <v>0.7350337454953934</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4686927727640682</v>
+        <v>0.4655501078790398</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5781880743919741</v>
+        <v>0.5777080932361017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6492955120854113</v>
+        <v>0.6486871288014567</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4228431540936189</v>
+        <v>0.4327675273714785</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7694150438548258</v>
+        <v>0.771086794887456</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8075100661323217</v>
+        <v>0.8044021837769708</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8117760251789095</v>
+        <v>0.8093765200143648</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7573049028503178</v>
+        <v>0.7612857857375958</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7194778705023785</v>
+        <v>0.7196426853343985</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7727407785503287</v>
+        <v>0.7717183298015218</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7841144178948066</v>
+        <v>0.7834389974596452</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6975545109167893</v>
+        <v>0.6983933478569282</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5788164170107031</v>
+        <v>0.5755796225359805</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6986431867695511</v>
+        <v>0.6940389431162461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7589078073976289</v>
+        <v>0.7554421451517228</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6331487495324625</v>
+        <v>0.6385620342832611</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8149580498399958</v>
+        <v>0.8143412704324161</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8537558158351045</v>
+        <v>0.8520195639565473</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8549477765920749</v>
+        <v>0.8571414621356211</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8180783764632792</v>
+        <v>0.8191275344359209</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7621916876658091</v>
+        <v>0.7634192044687138</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8154685782317881</v>
+        <v>0.8149226805505254</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8289644399188082</v>
+        <v>0.8282464634413735</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7672740534127815</v>
+        <v>0.7658669198612329</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6072564735926711</v>
+        <v>0.6064499060241225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6930185367334749</v>
+        <v>0.6939431060499076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7277755619679854</v>
+        <v>0.7268673463179943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6625786543600668</v>
+        <v>0.6624168293251513</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7492583542213362</v>
+        <v>0.7506636805193366</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8087205527295972</v>
+        <v>0.8065751494990079</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8000334095220307</v>
+        <v>0.8012059929154463</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7567615199235935</v>
+        <v>0.7567821319887065</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6839991898710887</v>
+        <v>0.6843920139990237</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7563802472949676</v>
+        <v>0.7568734825137685</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7686375690637228</v>
+        <v>0.7690386697593942</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7151793401534589</v>
+        <v>0.7141630017859483</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6416159340967436</v>
+        <v>0.6418548722486858</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7250501723526626</v>
+        <v>0.7259990126027108</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7583893378246102</v>
+        <v>0.7570047794972837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.69911760299699</v>
+        <v>0.6994733570301943</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7802825776787911</v>
+        <v>0.778747707199998</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8357527110288691</v>
+        <v>0.8339856329497869</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8267397560150451</v>
+        <v>0.8285166562264796</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.782206891203442</v>
+        <v>0.7819795328163005</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7077642661013132</v>
+        <v>0.707138628403981</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7772426979822168</v>
+        <v>0.77830135494259</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7897518216847667</v>
+        <v>0.7879323769031057</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7370198776114016</v>
+        <v>0.7370819342058648</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>255901</v>
+        <v>256288</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>259265</v>
+        <v>255979</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>287475</v>
+        <v>286200</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>374486</v>
+        <v>372270</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>198800</v>
+        <v>198688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>225540</v>
+        <v>226141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>247139</v>
+        <v>249056</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>338091</v>
+        <v>337340</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>466090</v>
+        <v>464491</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>493815</v>
+        <v>494510</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>549115</v>
+        <v>548653</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>721085</v>
+        <v>722019</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>300669</v>
+        <v>300555</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>299913</v>
+        <v>300602</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>325846</v>
+        <v>325309</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>418951</v>
+        <v>418341</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>231967</v>
+        <v>230634</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>255254</v>
+        <v>257228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>279500</v>
+        <v>281155</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>373173</v>
+        <v>372683</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>519752</v>
+        <v>522551</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>547448</v>
+        <v>548420</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>597639</v>
+        <v>598770</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>778891</v>
+        <v>781388</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>201362</v>
+        <v>201105</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>256291</v>
+        <v>255969</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>251104</v>
+        <v>255748</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>311376</v>
+        <v>314860</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>253085</v>
+        <v>254442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>246866</v>
+        <v>244856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>257700</v>
+        <v>255618</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>287703</v>
+        <v>287287</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>463918</v>
+        <v>463319</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>515188</v>
+        <v>515970</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>520003</v>
+        <v>519600</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>614070</v>
+        <v>612152</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>239328</v>
+        <v>238367</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>298093</v>
+        <v>298937</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>289577</v>
+        <v>291988</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>356268</v>
+        <v>358380</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>286715</v>
+        <v>287647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>279672</v>
+        <v>277694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>290859</v>
+        <v>291499</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>319996</v>
+        <v>320490</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>516039</v>
+        <v>517020</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>568161</v>
+        <v>570209</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>572096</v>
+        <v>569124</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>667429</v>
+        <v>665993</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>330526</v>
+        <v>330274</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>445698</v>
+        <v>444257</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>374030</v>
+        <v>375077</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>319466</v>
+        <v>319333</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>115678</v>
+        <v>115022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>193499</v>
+        <v>193583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>132508</v>
+        <v>132157</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>135078</v>
+        <v>134210</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>454120</v>
+        <v>456506</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>648198</v>
+        <v>647713</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>513835</v>
+        <v>513655</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>460223</v>
+        <v>460298</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>375860</v>
+        <v>376155</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>491578</v>
+        <v>491614</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>415500</v>
+        <v>415194</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>359483</v>
+        <v>359905</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>138163</v>
+        <v>137469</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>219735</v>
+        <v>220440</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>149595</v>
+        <v>149959</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>154246</v>
+        <v>153607</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>505758</v>
+        <v>506753</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>699839</v>
+        <v>699696</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>559988</v>
+        <v>559604</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>505633</v>
+        <v>506830</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>776305</v>
+        <v>778526</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>817947</v>
+        <v>817226</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>825583</v>
+        <v>823553</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>708186</v>
+        <v>703034</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>517361</v>
+        <v>517161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>610405</v>
+        <v>610037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>645389</v>
+        <v>641828</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>624516</v>
+        <v>624899</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1309194</v>
+        <v>1314369</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1444867</v>
+        <v>1443231</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1482164</v>
+        <v>1484519</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1350710</v>
+        <v>1346022</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>844429</v>
+        <v>843057</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>879577</v>
+        <v>879791</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>883450</v>
+        <v>884595</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>777603</v>
+        <v>777379</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>563473</v>
+        <v>565059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>652817</v>
+        <v>652245</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>689417</v>
+        <v>688676</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>672131</v>
+        <v>670224</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1391721</v>
+        <v>1391203</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1522859</v>
+        <v>1519204</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1560070</v>
+        <v>1555226</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1435291</v>
+        <v>1432546</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>196449</v>
+        <v>197375</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>360838</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>451013</v>
+        <v>451919</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>368109</v>
+        <v>366814</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>419541</v>
+        <v>417923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>623311</v>
+        <v>626499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>592564</v>
+        <v>593664</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>648001</v>
+        <v>650872</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>626511</v>
+        <v>627621</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>999274</v>
+        <v>997175</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1058645</v>
+        <v>1056500</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1030044</v>
+        <v>1027236</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>235214</v>
+        <v>233993</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>399291</v>
+        <v>400520</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>495096</v>
+        <v>494864</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>417644</v>
+        <v>415556</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>459844</v>
+        <v>459364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>665384</v>
+        <v>665184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>634372</v>
+        <v>634751</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>688432</v>
+        <v>689213</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>684267</v>
+        <v>683632</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1055531</v>
+        <v>1055881</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1118718</v>
+        <v>1121119</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1096305</v>
+        <v>1090640</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>139301</v>
+        <v>138367</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>154308</v>
+        <v>154180</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>185032</v>
+        <v>184859</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>100310</v>
+        <v>102665</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>959346</v>
+        <v>961430</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>895812</v>
+        <v>892364</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>876070</v>
+        <v>873481</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>637218</v>
+        <v>640567</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1110919</v>
+        <v>1111174</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1063471</v>
+        <v>1062064</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1069670</v>
+        <v>1068749</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>752421</v>
+        <v>753326</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>172031</v>
+        <v>171069</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>186455</v>
+        <v>185227</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>216269</v>
+        <v>215281</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>150201</v>
+        <v>151485</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1016131</v>
+        <v>1015362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>947115</v>
+        <v>945189</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>922661</v>
+        <v>925029</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>688354</v>
+        <v>689237</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1176872</v>
+        <v>1178767</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1122275</v>
+        <v>1121523</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1130853</v>
+        <v>1129874</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>827625</v>
+        <v>826107</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1980129</v>
+        <v>1977499</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2369992</v>
+        <v>2373154</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2457622</v>
+        <v>2454555</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2274065</v>
+        <v>2273509</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2529658</v>
+        <v>2534403</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2868487</v>
+        <v>2860878</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2814915</v>
+        <v>2819041</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2743934</v>
+        <v>2744009</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4539699</v>
+        <v>4542306</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5269515</v>
+        <v>5272951</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5300058</v>
+        <v>5302824</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>5047759</v>
+        <v>5040586</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2092168</v>
+        <v>2092947</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2479534</v>
+        <v>2482779</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2561002</v>
+        <v>2556326</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2399472</v>
+        <v>2400693</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2634403</v>
+        <v>2629220</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2964369</v>
+        <v>2958101</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2908881</v>
+        <v>2915133</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2836196</v>
+        <v>2835372</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4697427</v>
+        <v>4693275</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5414859</v>
+        <v>5422234</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5445649</v>
+        <v>5433103</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>5201911</v>
+        <v>5202349</v>
       </c>
     </row>
     <row r="32">
